--- a/积累库/工具加文档.xlsx
+++ b/积累库/工具加文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26895" windowHeight="13080" activeTab="1"/>
+    <workbookView windowWidth="21300" windowHeight="13485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>名称</t>
   </si>
@@ -166,6 +166,30 @@
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1uK4y1u7bj?p=3&amp;vd_source=42fd18cd452e0e4e27f559d8ed84f22e</t>
+  </si>
+  <si>
+    <t>mixamo</t>
+  </si>
+  <si>
+    <t>角色动画库，在线蒙皮</t>
+  </si>
+  <si>
+    <t>https://www.mixamo.com/</t>
+  </si>
+  <si>
+    <t>world machine</t>
+  </si>
+  <si>
+    <t>大地形制作</t>
+  </si>
+  <si>
+    <t>inkspace_to_blender</t>
+  </si>
+  <si>
+    <t>关卡制作方案，平面图直接可以拉成3D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9AGYNV7yNaI</t>
   </si>
 </sst>
 </file>
@@ -822,7 +846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,10 +865,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1244,7 +1265,7 @@
       <c r="D5"/>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1256,10 +1277,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1472,17 +1493,56 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1496,6 +1556,7 @@
     <hyperlink ref="D14" r:id="rId7" display="https://ldtk.io/"/>
     <hyperlink ref="D15" r:id="rId8" display="https://game-maps.com/"/>
     <hyperlink ref="D16" r:id="rId9" display="https://www.bilibili.com/video/BV1uK4y1u7bj?p=3&amp;vd_source=42fd18cd452e0e4e27f559d8ed84f22e"/>
+    <hyperlink ref="D19" r:id="rId10" display="https://www.youtube.com/watch?v=9AGYNV7yNaI"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/积累库/工具加文档.xlsx
+++ b/积累库/工具加文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21300" windowHeight="13485" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
     <t>大地形制作</t>
   </si>
   <si>
-    <t>inkspace_to_blender</t>
+    <t>Inkscape_to_blender</t>
   </si>
   <si>
     <t>关卡制作方案，平面图直接可以拉成3D</t>
@@ -1280,7 +1280,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>

--- a/积累库/工具加文档.xlsx
+++ b/积累库/工具加文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="22005" windowHeight="9690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>名称</t>
   </si>
@@ -190,6 +190,40 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=9AGYNV7yNaI</t>
+  </si>
+  <si>
+    <t>钩锁功能</t>
+  </si>
+  <si>
+    <t>视频、代码库</t>
+  </si>
+  <si>
+    <t>仿造只狼制作的钩锁系统</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fL8FcQFK7pA
+https://github.com/LucidTales/GDPSekiro</t>
+  </si>
+  <si>
+    <t>光线设计</t>
+  </si>
+  <si>
+    <t>虚幻插件</t>
+  </si>
+  <si>
+    <t>Fantasy Cave Environment Set</t>
+  </si>
+  <si>
+    <t>找下资源</t>
+  </si>
+  <si>
+    <t>Eye Adaptation</t>
+  </si>
+  <si>
+    <t>文章</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/115658802</t>
   </si>
 </sst>
 </file>
@@ -846,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,6 +900,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1265,7 +1305,7 @@
       <c r="D5"/>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="7"/>
+      <c r="E6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1277,10 +1317,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1545,6 +1585,48 @@
         <v>57</v>
       </c>
     </row>
+    <row r="20" ht="33" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://github.com/Tencent/puerts"/>
@@ -1557,6 +1639,8 @@
     <hyperlink ref="D15" r:id="rId8" display="https://game-maps.com/"/>
     <hyperlink ref="D16" r:id="rId9" display="https://www.bilibili.com/video/BV1uK4y1u7bj?p=3&amp;vd_source=42fd18cd452e0e4e27f559d8ed84f22e"/>
     <hyperlink ref="D19" r:id="rId10" display="https://www.youtube.com/watch?v=9AGYNV7yNaI"/>
+    <hyperlink ref="D20" r:id="rId11" display="https://www.youtube.com/watch?v=fL8FcQFK7pA&#10;https://github.com/LucidTales/GDPSekiro"/>
+    <hyperlink ref="D22" r:id="rId12" display="https://zhuanlan.zhihu.com/p/115658802"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/积累库/工具加文档.xlsx
+++ b/积累库/工具加文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22005" windowHeight="9690" activeTab="1"/>
+    <workbookView windowWidth="25440" windowHeight="13980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>名称</t>
   </si>
@@ -224,6 +224,15 @@
   </si>
   <si>
     <t>https://zhuanlan.zhihu.com/p/115658802</t>
+  </si>
+  <si>
+    <t>无知之幕和原初位置</t>
+  </si>
+  <si>
+    <t>简单解释版本</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/416195349</t>
   </si>
 </sst>
 </file>
@@ -880,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,13 +908,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1305,7 +1317,7 @@
       <c r="D5"/>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="9"/>
+      <c r="E6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1317,10 +1329,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1547,84 +1559,99 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" ht="33" spans="1:4">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1641,6 +1668,7 @@
     <hyperlink ref="D19" r:id="rId10" display="https://www.youtube.com/watch?v=9AGYNV7yNaI"/>
     <hyperlink ref="D20" r:id="rId11" display="https://www.youtube.com/watch?v=fL8FcQFK7pA&#10;https://github.com/LucidTales/GDPSekiro"/>
     <hyperlink ref="D22" r:id="rId12" display="https://zhuanlan.zhihu.com/p/115658802"/>
+    <hyperlink ref="D23" r:id="rId13" display="https://zhuanlan.zhihu.com/p/416195349"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/积累库/工具加文档.xlsx
+++ b/积累库/工具加文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25440" windowHeight="13980" activeTab="1"/>
+    <workbookView windowWidth="13725" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>名称</t>
   </si>
@@ -233,6 +233,24 @@
   </si>
   <si>
     <t>https://zhuanlan.zhihu.com/p/416195349</t>
+  </si>
+  <si>
+    <t>valve关卡设计集</t>
+  </si>
+  <si>
+    <t>文档库</t>
+  </si>
+  <si>
+    <t>https://developer.valvesoftware.com/wiki/Category:Level_Design#Design_Theory</t>
+  </si>
+  <si>
+    <t>枪械设计</t>
+  </si>
+  <si>
+    <t>枪械的完整设计逻辑</t>
+  </si>
+  <si>
+    <t>https://www.gameres.com/896138.html</t>
   </si>
 </sst>
 </file>
@@ -280,6 +298,14 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -303,14 +329,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,10 +765,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,19 +777,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,7 +801,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,13 +822,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -822,10 +840,10 @@
     <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -840,56 +858,56 @@
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -903,12 +921,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
@@ -917,7 +929,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1317,7 +1329,7 @@
       <c r="D5"/>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="10"/>
+      <c r="E6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1329,10 +1341,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D23"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1559,99 +1571,125 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" ht="33" spans="1:4">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="4" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1669,6 +1707,8 @@
     <hyperlink ref="D20" r:id="rId11" display="https://www.youtube.com/watch?v=fL8FcQFK7pA&#10;https://github.com/LucidTales/GDPSekiro"/>
     <hyperlink ref="D22" r:id="rId12" display="https://zhuanlan.zhihu.com/p/115658802"/>
     <hyperlink ref="D23" r:id="rId13" display="https://zhuanlan.zhihu.com/p/416195349"/>
+    <hyperlink ref="D24" r:id="rId14" display="https://developer.valvesoftware.com/wiki/Category:Level_Design#Design_Theory"/>
+    <hyperlink ref="D25" r:id="rId15" display="https://www.gameres.com/896138.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
